--- a/FIT5216/Assignment 2/Assignment 2 Rostering/FIT5216 Assignment 2 Report Table.xlsx
+++ b/FIT5216/Assignment 2/Assignment 2 Rostering/FIT5216 Assignment 2 Report Table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manut\Desktop\Master-of-Artificial-Intelligence-Y2S1\FIT5216\Assignment 2\Assignment 2 Rostering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{047D5087-3C19-426B-AB33-323F84A056CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB67837-AA6D-480E-9A9C-4DA544317A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B685550B-D9FD-4333-BB70-0EA11266C85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
   <si>
     <t>Data File</t>
   </si>
@@ -318,6 +319,27 @@
   </si>
   <si>
     <t>Number of Data Files Unaffected</t>
+  </si>
+  <si>
+    <t>(A1)</t>
+  </si>
+  <si>
+    <t>REMOVED CONSTRAINTS</t>
+  </si>
+  <si>
+    <t>(A2)</t>
+  </si>
+  <si>
+    <t>(B1)</t>
+  </si>
+  <si>
+    <t>(B2)</t>
+  </si>
+  <si>
+    <t>(D1)</t>
+  </si>
+  <si>
+    <t>(D2)</t>
   </si>
 </sst>
 </file>
@@ -556,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,27 +595,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -605,6 +609,45 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -950,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283EC515-6654-43BF-8BCF-714A817500AE}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,1003 +1023,1374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="5" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="7" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <v>114</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <f>C3-C3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="8">
         <v>107</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f>C3-F3</f>
         <v>7</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="8">
         <v>110</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <f>C3-I3</f>
         <v>4</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="8">
         <v>64</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <f>C3-L3</f>
         <v>50</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="8">
         <v>114</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="6">
         <f>C3-O3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="8">
         <v>114</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="6">
         <f>C3-R3</f>
         <v>0</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="8">
         <v>114</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="6">
         <f>C3-U3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>111</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D12" si="0">C4-C4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="8">
         <v>105</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:G12" si="1">C4-F4</f>
+      <c r="G4" s="6">
+        <f>C4-F4</f>
         <v>6</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="8">
         <v>108</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <f>C4-I4</f>
         <v>3</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="8">
         <v>78</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <f>C4-L4</f>
         <v>33</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="8">
         <v>111</v>
       </c>
-      <c r="P4" s="8">
-        <f t="shared" ref="P4:P12" si="2">C4-O4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="6">
+        <f>C4-O4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="8">
         <v>111</v>
       </c>
-      <c r="S4" s="8">
-        <f t="shared" ref="S4:S12" si="3">C4-R4</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="14" t="s">
+      <c r="S4" s="6">
+        <f>C4-R4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="8">
         <v>111</v>
       </c>
-      <c r="V4" s="8">
-        <f t="shared" ref="V4:V12" si="4">C4-U4</f>
+      <c r="V4" s="6">
+        <f>C4-U4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>116</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="8">
         <v>116</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="6">
+        <f>C5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="8">
         <v>116</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <f>C5-I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="8">
         <v>110</v>
       </c>
-      <c r="M5" s="8">
-        <f t="shared" ref="M4:M12" si="5">C5-L5</f>
+      <c r="M5" s="6">
+        <f>C5-L5</f>
         <v>6</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="8">
         <v>98</v>
       </c>
-      <c r="P5" s="8">
-        <f t="shared" si="2"/>
+      <c r="P5" s="6">
+        <f>C5-O5</f>
         <v>18</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="8">
         <v>116</v>
       </c>
-      <c r="S5" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="14" t="s">
+      <c r="S5" s="6">
+        <f>C5-R5</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="8">
         <v>116</v>
       </c>
-      <c r="V5" s="8">
-        <f t="shared" si="4"/>
+      <c r="V5" s="6">
+        <f>C5-U5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>366</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="8">
         <v>366</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="6">
+        <f>C6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="8">
         <v>362</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <f>C6-I6</f>
         <v>4</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="8">
         <v>352</v>
       </c>
-      <c r="M6" s="8">
-        <f t="shared" si="5"/>
+      <c r="M6" s="6">
+        <f>C6-L6</f>
         <v>14</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="8">
         <v>298</v>
       </c>
-      <c r="P6" s="8">
-        <f t="shared" si="2"/>
+      <c r="P6" s="6">
+        <f>C6-O6</f>
         <v>68</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="8">
         <v>362</v>
       </c>
-      <c r="S6" s="8">
-        <f t="shared" si="3"/>
+      <c r="S6" s="6">
+        <f>C6-R6</f>
         <v>4</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="8">
         <v>366</v>
       </c>
-      <c r="V6" s="8">
-        <f t="shared" si="4"/>
+      <c r="V6" s="6">
+        <f>C6-U6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>440</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="8">
         <v>440</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="6">
+        <f>C7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="8">
         <v>440</v>
       </c>
-      <c r="J7" s="8">
-        <f t="shared" ref="J4:J12" si="6">C7-I7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="6">
+        <f>C7-I7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="8">
         <v>352</v>
       </c>
-      <c r="M7" s="8">
-        <f t="shared" si="5"/>
+      <c r="M7" s="6">
+        <f>C7-L7</f>
         <v>88</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="8">
         <v>315</v>
       </c>
-      <c r="P7" s="8">
-        <f t="shared" si="2"/>
+      <c r="P7" s="6">
+        <f>C7-O7</f>
         <v>125</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="8">
         <v>384</v>
       </c>
-      <c r="S7" s="8">
-        <f t="shared" si="3"/>
+      <c r="S7" s="6">
+        <f>C7-R7</f>
         <v>56</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="8">
         <v>440</v>
       </c>
-      <c r="V7" s="8">
-        <f t="shared" si="4"/>
+      <c r="V7" s="6">
+        <f>C7-U7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="8">
         <v>691</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="8">
         <v>681</v>
       </c>
-      <c r="G8" s="8">
-        <f t="shared" si="1"/>
+      <c r="G8" s="6">
+        <f>C8-F8</f>
         <v>10</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="8">
         <v>685</v>
       </c>
-      <c r="J8" s="8">
-        <f t="shared" si="6"/>
+      <c r="J8" s="6">
+        <f>C8-I8</f>
         <v>6</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="8">
         <v>673</v>
       </c>
-      <c r="M8" s="8">
-        <f t="shared" si="5"/>
+      <c r="M8" s="6">
+        <f>C8-L8</f>
         <v>18</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="8">
         <v>563</v>
       </c>
-      <c r="P8" s="8">
-        <f t="shared" si="2"/>
+      <c r="P8" s="6">
+        <f>C8-O8</f>
         <v>128</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="8">
         <v>683</v>
       </c>
-      <c r="S8" s="8">
-        <f t="shared" si="3"/>
+      <c r="S8" s="6">
+        <f>C8-R8</f>
         <v>8</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="8">
         <v>691</v>
       </c>
-      <c r="V8" s="8">
-        <f t="shared" si="4"/>
+      <c r="V8" s="6">
+        <f>C8-U8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>945</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="8">
         <v>912</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="1"/>
+      <c r="G9" s="6">
+        <f>C9-F9</f>
         <v>33</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="8">
         <v>945</v>
       </c>
-      <c r="J9" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14" t="s">
+      <c r="J9" s="6">
+        <f>C9-I9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="8">
         <v>945</v>
       </c>
-      <c r="M9" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="14" t="s">
+      <c r="M9" s="6">
+        <f>C9-L9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="8">
         <v>541</v>
       </c>
-      <c r="P9" s="8">
-        <f t="shared" si="2"/>
+      <c r="P9" s="6">
+        <f>C9-O9</f>
         <v>404</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="8">
         <v>945</v>
       </c>
-      <c r="S9" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="14" t="s">
+      <c r="S9" s="6">
+        <f>C9-R9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="8">
         <v>945</v>
       </c>
-      <c r="V9" s="8">
-        <f t="shared" si="4"/>
+      <c r="V9" s="6">
+        <f>C9-U9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>399</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="8">
         <v>366</v>
       </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
+      <c r="G10" s="6">
+        <f>C10-F10</f>
         <v>33</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="8">
         <v>383</v>
       </c>
-      <c r="J10" s="8">
-        <f t="shared" si="6"/>
+      <c r="J10" s="6">
+        <f>C10-I10</f>
         <v>16</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="8">
         <v>296</v>
       </c>
-      <c r="M10" s="8">
-        <f t="shared" si="5"/>
+      <c r="M10" s="6">
+        <f>C10-L10</f>
         <v>103</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="8">
         <v>399</v>
       </c>
-      <c r="P10" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="6">
+        <f>C10-O10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="8">
         <v>396</v>
       </c>
-      <c r="S10" s="8">
-        <f t="shared" si="3"/>
+      <c r="S10" s="6">
+        <f>C10-R10</f>
         <v>3</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="T10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="8">
         <v>399</v>
       </c>
-      <c r="V10" s="8">
-        <f t="shared" si="4"/>
+      <c r="V10" s="6">
+        <f>C10-U10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>362</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="8">
         <v>362</v>
       </c>
-      <c r="G11" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="6">
+        <f>C11-F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="8">
         <v>357</v>
       </c>
-      <c r="J11" s="8">
-        <f t="shared" si="6"/>
+      <c r="J11" s="6">
+        <f>C11-I11</f>
         <v>5</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="8">
         <v>352</v>
       </c>
-      <c r="M11" s="8">
-        <f t="shared" si="5"/>
+      <c r="M11" s="6">
+        <f>C11-L11</f>
         <v>10</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="8">
         <v>293</v>
       </c>
-      <c r="P11" s="8">
-        <f t="shared" si="2"/>
+      <c r="P11" s="6">
+        <f>C11-O11</f>
         <v>69</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="8">
         <v>362</v>
       </c>
-      <c r="S11" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="14" t="s">
+      <c r="S11" s="6">
+        <f>C11-R11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="8">
         <v>362</v>
       </c>
-      <c r="V11" s="8">
-        <f t="shared" si="4"/>
+      <c r="V11" s="6">
+        <f>C11-U11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>384</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>384</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="6">
+        <f>C12-F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="8">
         <v>374</v>
       </c>
-      <c r="J12" s="8">
-        <f t="shared" si="6"/>
+      <c r="J12" s="6">
+        <f>C12-I12</f>
         <v>10</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="8">
         <v>318</v>
       </c>
-      <c r="M12" s="8">
-        <f t="shared" si="5"/>
+      <c r="M12" s="6">
+        <f>C12-L12</f>
         <v>66</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="8">
         <v>335</v>
       </c>
-      <c r="P12" s="8">
-        <f t="shared" si="2"/>
+      <c r="P12" s="6">
+        <f>C12-O12</f>
         <v>49</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="8">
         <v>378</v>
       </c>
-      <c r="S12" s="8">
-        <f t="shared" si="3"/>
+      <c r="S12" s="6">
+        <f>C12-R12</f>
         <v>6</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="T12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="8">
         <v>384</v>
       </c>
-      <c r="V12" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="V12" s="6">
+        <f>C12-U12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="17">
         <f>AVERAGE(D3:D12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
         <f>AVERAGE(G3:G12)</f>
         <v>8.9</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10">
+      <c r="F13" s="13"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17">
         <f>AVERAGE(J3:J12)</f>
         <v>4.8</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10">
-        <f t="shared" ref="K13" si="7">AVERAGE(M3:M12)</f>
+      <c r="I13" s="13"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="17">
+        <f t="shared" ref="K13" si="1">AVERAGE(M3:M12)</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10">
-        <f t="shared" ref="N13" si="8">AVERAGE(P3:P12)</f>
+      <c r="L13" s="13"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="17">
+        <f t="shared" ref="N13" si="2">AVERAGE(P3:P12)</f>
         <v>86.1</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10">
-        <f t="shared" ref="Q13" si="9">AVERAGE(S3:S12)</f>
+      <c r="O13" s="13"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="17">
+        <f t="shared" ref="Q13" si="3">AVERAGE(S3:S12)</f>
         <v>7.7</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10">
-        <f t="shared" ref="T13" si="10">AVERAGE(V3:V12)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="17">
+        <f t="shared" ref="T13" si="4">AVERAGE(V3:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="15"/>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="13">
         <f>COUNTIF(D3:D12,0)</f>
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11">
-        <f t="shared" ref="E14" si="11">COUNTIF(G3:G12,0)</f>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13">
+        <f t="shared" ref="E14" si="5">COUNTIF(G3:G12,0)</f>
         <v>5</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="11">
-        <f t="shared" ref="H14" si="12">COUNTIF(J3:J12,0)</f>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="13">
+        <f t="shared" ref="H14" si="6">COUNTIF(J3:J12,0)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="11">
-        <f t="shared" ref="K14" si="13">COUNTIF(M3:M12,0)</f>
+      <c r="I14" s="13"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="13">
+        <f t="shared" ref="K14" si="7">COUNTIF(M3:M12,0)</f>
         <v>1</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="11">
-        <f t="shared" ref="N14" si="14">COUNTIF(P3:P12,0)</f>
+      <c r="L14" s="13"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="13">
+        <f t="shared" ref="N14" si="8">COUNTIF(P3:P12,0)</f>
         <v>3</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="11">
-        <f t="shared" ref="Q14" si="15">COUNTIF(S3:S12,0)</f>
+      <c r="O14" s="13"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="13">
+        <f t="shared" ref="Q14" si="9">COUNTIF(S3:S12,0)</f>
         <v>5</v>
       </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="11">
-        <f t="shared" ref="T14" si="16">COUNTIF(V3:V12,0)</f>
+      <c r="R14" s="13"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="13">
+        <f t="shared" ref="T14" si="10">COUNTIF(V3:V12,0)</f>
         <v>10</v>
       </c>
-      <c r="U14" s="12"/>
-      <c r="V14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="15"/>
     </row>
     <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="13">
         <f>10-B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="11">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13">
         <f>10-E14</f>
         <v>5</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="11">
-        <f t="shared" ref="H15" si="17">10-H14</f>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13">
+        <f t="shared" ref="H15" si="11">10-H14</f>
         <v>7</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11">
-        <f t="shared" ref="K15" si="18">10-K14</f>
+      <c r="I15" s="13"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="13">
+        <f t="shared" ref="K15" si="12">10-K14</f>
         <v>9</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="11">
-        <f t="shared" ref="N15" si="19">10-N14</f>
+      <c r="L15" s="13"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="13">
+        <f t="shared" ref="N15" si="13">10-N14</f>
         <v>7</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="11">
-        <f t="shared" ref="Q15" si="20">10-Q14</f>
+      <c r="O15" s="13"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="13">
+        <f t="shared" ref="Q15" si="14">10-Q14</f>
         <v>5</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="11">
-        <f t="shared" ref="T15" si="21">10-T14</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="13">
+        <f t="shared" ref="T15" si="15">10-T14</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="13"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="6"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="15"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="15"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="49">
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T14:V14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
@@ -1991,27 +2405,363 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CDCEA5-F8F1-4A76-8B9D-B2CA7FABEA23}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A9141D64CF76742B5B0846E931A1F31" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8191b0867d979ebbf4a133103626a63e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8d544c71-c91b-49a5-a2b2-740bf542efd5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="830af6aa9d243fc18cf7857c63d2db4a" ns3:_="">
     <xsd:import namespace="8d544c71-c91b-49a5-a2b2-740bf542efd5"/>
@@ -2163,22 +2913,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5873FD30-4425-4168-A732-E07494B45FB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8d544c71-c91b-49a5-a2b2-740bf542efd5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9E3D2CC-127B-4AA0-B092-03D10FF28A6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0689AB11-C356-48C8-84A8-30A0809DFB90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2194,28 +2953,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9E3D2CC-127B-4AA0-B092-03D10FF28A6E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5873FD30-4425-4168-A732-E07494B45FB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8d544c71-c91b-49a5-a2b2-740bf542efd5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>